--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1968358.328095062</v>
+        <v>-1970356.001107907</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>317.1000112930346</v>
       </c>
       <c r="H2" t="n">
-        <v>114.2495011054984</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>88.80932687628616</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>50.06729527459982</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>113.4585558833472</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>275.686406649936</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>78.64571997422897</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>215.9925885220439</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>377.3542771526512</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>108.9016317810209</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>59.91780625496052</v>
+        <v>91.13431341868547</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>28.12580423844393</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>186.7051455507955</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>6.361370466375183</v>
       </c>
       <c r="S16" t="n">
-        <v>133.6842167033192</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>207.4205887801231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>259.2964546306998</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>59.01585011841155</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>96.45266989055078</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.700090052297</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898666</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E25" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2533,16 +2533,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898766</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463132</v>
+        <v>42.2873553346308</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898755</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224535</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1349.006596680237</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C2" t="n">
-        <v>980.0440797398257</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="D2" t="n">
-        <v>980.0440797398257</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="E2" t="n">
-        <v>594.2558271415814</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="F2" t="n">
-        <v>587.310326392378</v>
+        <v>701.4407434944976</v>
       </c>
       <c r="G2" t="n">
-        <v>169.3465182905649</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2125.745768720171</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>2125.745768720171</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>1735.606436744359</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="3">
@@ -4389,10 +4389,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4410,28 +4410,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5993065148977</v>
+        <v>143.6493726044919</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>677.5559586765356</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>677.5559586765356</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>450.2477713451374</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>450.2477713451374</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>450.2477713451374</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="W4" t="n">
-        <v>450.2477713451374</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="X4" t="n">
-        <v>450.2477713451374</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="Y4" t="n">
-        <v>450.2477713451374</v>
+        <v>325.2978374347316</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1288.509552617345</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C5" t="n">
-        <v>919.5470356769335</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>561.2813370701831</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>175.4930844719389</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>168.5475837227354</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1675.109392681467</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>1675.109392681467</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.80799380017</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C7" t="n">
-        <v>361.80799380017</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>648.6888630203443</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>648.6888630203443</v>
       </c>
       <c r="W7" t="n">
-        <v>361.80799380017</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="X7" t="n">
-        <v>361.80799380017</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.80799380017</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1705.877315537684</v>
+        <v>1533.27522618254</v>
       </c>
       <c r="C8" t="n">
-        <v>1705.877315537684</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
         <v>799.1015098861748</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.477155601806</v>
+        <v>1914.44116270037</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
         <v>201.8560754027576</v>
@@ -4999,13 +4999,13 @@
         <v>444.0275768541695</v>
       </c>
       <c r="W10" t="n">
-        <v>383.5045402329973</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X10" t="n">
-        <v>383.5045402329973</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.5045402329973</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,16 +5118,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>738.72199690426</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C13" t="n">
-        <v>738.72199690426</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D13" t="n">
-        <v>588.6053574919242</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>440.6922639095311</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>293.8023164116207</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>125.6269947314413</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>125.6269947314413</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>1086.539799235494</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.78763177146</v>
+        <v>831.8553110296066</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344997</v>
+        <v>542.438140992646</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617344997</v>
+        <v>542.438140992646</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.3704617344997</v>
+        <v>542.438140992646</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1492.49064382419</v>
       </c>
       <c r="S16" t="n">
-        <v>1252.806604793143</v>
+        <v>1292.570633739742</v>
       </c>
       <c r="T16" t="n">
-        <v>1252.806604793143</v>
+        <v>1068.785218529248</v>
       </c>
       <c r="U16" t="n">
-        <v>963.677966006701</v>
+        <v>1068.785218529248</v>
       </c>
       <c r="V16" t="n">
-        <v>708.9934778008142</v>
+        <v>1068.785218529248</v>
       </c>
       <c r="W16" t="n">
-        <v>708.9934778008142</v>
+        <v>779.3680484922876</v>
       </c>
       <c r="X16" t="n">
-        <v>708.9934778008142</v>
+        <v>779.3680484922876</v>
       </c>
       <c r="Y16" t="n">
-        <v>708.9934778008142</v>
+        <v>558.5754693487575</v>
       </c>
     </row>
     <row r="17">
@@ -5516,7 +5516,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5598,16 +5598,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864553</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>542.438140992646</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C19" t="n">
-        <v>542.438140992646</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D19" t="n">
         <v>542.438140992646</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1089.480514230906</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609664</v>
+        <v>1089.480514230906</v>
       </c>
       <c r="W19" t="n">
-        <v>724.0866058228858</v>
+        <v>1089.480514230906</v>
       </c>
       <c r="X19" t="n">
-        <v>724.0866058228858</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="Y19" t="n">
-        <v>724.0866058228858</v>
+        <v>861.4909633328887</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,34 +5735,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.3055067228584</v>
+        <v>1089.278254829645</v>
       </c>
       <c r="C22" t="n">
-        <v>413.3055067228584</v>
+        <v>920.3420719017386</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>770.2254324894028</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>622.3123389070097</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>475.4223914090993</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>307.2470697289199</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>156.8290612768632</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1401.489331274518</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1112.360692488076</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1112.360692488076</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>822.9435224511154</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X22" t="n">
-        <v>594.9539715530981</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y22" t="n">
-        <v>594.9539715530981</v>
+        <v>1270.926719659885</v>
       </c>
     </row>
     <row r="23">
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H25" t="n">
         <v>139.9315917982973</v>
@@ -6145,10 +6145,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L25" t="n">
         <v>709.8489468649691</v>
@@ -6181,16 +6181,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,7 +6221,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6230,46 +6230,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L28" t="n">
         <v>709.8489468649691</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
@@ -6655,13 +6655,13 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
         <v>772.288612901032</v>
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
         <v>904.3190116155888</v>
@@ -6692,19 +6692,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515098</v>
@@ -6713,7 +6713,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6783,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,25 +6883,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,7 +7330,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7549,31 +7549,31 @@
         <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229678</v>
@@ -7789,10 +7789,10 @@
         <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,13 +7825,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,19 +9246,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>199.7396287231156</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>308.1251096272039</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,22 +10908,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>230.7151863772034</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>238.3210176799676</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>96.6841587277604</v>
       </c>
       <c r="H2" t="n">
-        <v>203.7751412030572</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>96.59789670555801</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>82.29344122582806</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>99.53220684778182</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323832</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>103.6029819374176</v>
       </c>
       <c r="S16" t="n">
-        <v>64.23659328028407</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>78.81676361845422</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>27.22654370589117</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>51.40339534586045</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,16 +24178,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>125.0948911678385</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-4.973799150320701e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5.755396159656812e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
     </row>
     <row r="32">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1259508.765187078</v>
+        <v>1259508.765187077</v>
       </c>
     </row>
     <row r="3">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36783.84869564042</v>
+        <v>36783.84869564044</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="E2" t="n">
-        <v>39102.90597377086</v>
+        <v>39102.90597377088</v>
       </c>
       <c r="F2" t="n">
-        <v>39102.90597377087</v>
+        <v>39102.90597377089</v>
       </c>
       <c r="G2" t="n">
-        <v>39102.9059737709</v>
+        <v>39102.90597377088</v>
       </c>
       <c r="H2" t="n">
-        <v>39102.90597377089</v>
+        <v>39102.90597377085</v>
       </c>
       <c r="I2" t="n">
+        <v>41052.08849321424</v>
+      </c>
+      <c r="J2" t="n">
         <v>41052.08849321416</v>
       </c>
-      <c r="J2" t="n">
-        <v>41052.08849321415</v>
-      </c>
       <c r="K2" t="n">
-        <v>41052.08849321424</v>
+        <v>41052.08849321423</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
         <v>41052.0884932142</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371248</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,34 +26421,34 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007518</v>
+        <v>7916.73165600752</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="J4" t="n">
-        <v>30335.51889732802</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732792</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
@@ -26457,7 +26457,7 @@
         <v>30335.51889732795</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732798</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26491,22 +26491,22 @@
         <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-735236.7423565367</v>
+        <v>-735450.1543464153</v>
       </c>
       <c r="C6" t="n">
         <v>-189724.0382861161</v>
@@ -26528,19 +26528,19 @@
         <v>-189724.0382861161</v>
       </c>
       <c r="E6" t="n">
-        <v>-585961.1881078491</v>
+        <v>-586058.6472338215</v>
       </c>
       <c r="F6" t="n">
-        <v>-60801.15163095329</v>
+        <v>-60898.61075692542</v>
       </c>
       <c r="G6" t="n">
-        <v>-60801.15163095321</v>
+        <v>-60898.61075692539</v>
       </c>
       <c r="H6" t="n">
-        <v>-60801.15163095322</v>
+        <v>-60898.61075692542</v>
       </c>
       <c r="I6" t="n">
-        <v>-141504.0483278517</v>
+        <v>-141504.0483278516</v>
       </c>
       <c r="J6" t="n">
         <v>-263421.7554167321</v>
@@ -26549,7 +26549,7 @@
         <v>-86998.53622413913</v>
       </c>
       <c r="L6" t="n">
-        <v>-86998.53622413921</v>
+        <v>-86998.53622413916</v>
       </c>
       <c r="M6" t="n">
         <v>-221799.5514579763</v>
@@ -26558,10 +26558,10 @@
         <v>-141504.0483278517</v>
       </c>
       <c r="O6" t="n">
-        <v>-86998.53622413911</v>
+        <v>-86998.53622413916</v>
       </c>
       <c r="P6" t="n">
-        <v>-86998.53622413916</v>
+        <v>-86998.53622413921</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="J2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="K2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,25 +26756,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26938,16 +26938,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>143.6093523922942</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.898130455801521</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>78.43749422234167</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>300.3256141374478</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>110.5515320061176</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>207.6361542677488</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>70.53040981454708</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.379564510829368</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>245.7814098396621</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>226.6051920816305</v>
+        <v>195.3886849179056</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.723171768962981e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28342,10 +28342,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="26">
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>482.1033309642237</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>590.488811868312</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>487.1420318003117</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>541.1395634276697</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37780,19 +37780,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
